--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H2">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I2">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J2">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N2">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O2">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P2">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q2">
-        <v>117.6159772382933</v>
+        <v>62.82924742564245</v>
       </c>
       <c r="R2">
-        <v>1058.54379514464</v>
+        <v>565.4632268307821</v>
       </c>
       <c r="S2">
-        <v>0.03758090305208647</v>
+        <v>0.02781063728046666</v>
       </c>
       <c r="T2">
-        <v>0.03758090305208647</v>
+        <v>0.02781063728046666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H3">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I3">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J3">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.288089</v>
       </c>
       <c r="O3">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P3">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q3">
-        <v>8.553270075653336</v>
+        <v>9.486081422085668</v>
       </c>
       <c r="R3">
-        <v>76.97943068088001</v>
+        <v>85.37473279877101</v>
       </c>
       <c r="S3">
-        <v>0.002732958744543647</v>
+        <v>0.00419890386168986</v>
       </c>
       <c r="T3">
-        <v>0.002732958744543646</v>
+        <v>0.004198903861689861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H4">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I4">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J4">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N4">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O4">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P4">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q4">
-        <v>143.1516339811911</v>
+        <v>67.66788032410734</v>
       </c>
       <c r="R4">
-        <v>1288.36470583072</v>
+        <v>609.010922916966</v>
       </c>
       <c r="S4">
-        <v>0.04574010950481113</v>
+        <v>0.02995240198378889</v>
       </c>
       <c r="T4">
-        <v>0.04574010950481112</v>
+        <v>0.02995240198378889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H5">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I5">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J5">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N5">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O5">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P5">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q5">
-        <v>134.9533172464089</v>
+        <v>131.4741030668662</v>
       </c>
       <c r="R5">
-        <v>1214.57985521768</v>
+        <v>1183.266927601796</v>
       </c>
       <c r="S5">
-        <v>0.043120566194161</v>
+        <v>0.0581954860512149</v>
       </c>
       <c r="T5">
-        <v>0.04312056619416099</v>
+        <v>0.05819548605121491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.790546</v>
       </c>
       <c r="I6">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J6">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N6">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O6">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P6">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q6">
-        <v>5.179437093181333</v>
+        <v>2.494729350060889</v>
       </c>
       <c r="R6">
-        <v>46.614933838632</v>
+        <v>22.452564150548</v>
       </c>
       <c r="S6">
-        <v>0.001654944573294375</v>
+        <v>0.00110426299709523</v>
       </c>
       <c r="T6">
-        <v>0.001654944573294374</v>
+        <v>0.00110426299709523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.790546</v>
       </c>
       <c r="I7">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J7">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.288089</v>
       </c>
       <c r="O7">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P7">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q7">
         <v>0.3766590673993334</v>
@@ -883,10 +883,10 @@
         <v>3.389931606594</v>
       </c>
       <c r="S7">
-        <v>0.0001203508930333915</v>
+        <v>0.000166723765301166</v>
       </c>
       <c r="T7">
-        <v>0.0001203508930333915</v>
+        <v>0.000166723765301166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.790546</v>
       </c>
       <c r="I8">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J8">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N8">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O8">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P8">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q8">
-        <v>6.303946967081777</v>
+        <v>2.686854514702667</v>
       </c>
       <c r="R8">
-        <v>56.735522703736</v>
+        <v>24.181690632324</v>
       </c>
       <c r="S8">
-        <v>0.002014250320221481</v>
+        <v>0.001189304971736514</v>
       </c>
       <c r="T8">
-        <v>0.002014250320221481</v>
+        <v>0.001189304971736514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.790546</v>
       </c>
       <c r="I9">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J9">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N9">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O9">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P9">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q9">
-        <v>5.942918926548221</v>
+        <v>5.220376132660444</v>
       </c>
       <c r="R9">
-        <v>53.48627033893399</v>
+        <v>46.983385193944</v>
       </c>
       <c r="S9">
-        <v>0.001898893885586009</v>
+        <v>0.0023107389160573</v>
       </c>
       <c r="T9">
-        <v>0.001898893885586009</v>
+        <v>0.0023107389160573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H10">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I10">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J10">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N10">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O10">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P10">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q10">
-        <v>10.79111089788667</v>
+        <v>2.659867352009778</v>
       </c>
       <c r="R10">
-        <v>97.11999808098</v>
+        <v>23.938806168088</v>
       </c>
       <c r="S10">
-        <v>0.003447998324718737</v>
+        <v>0.001177359417338952</v>
       </c>
       <c r="T10">
-        <v>0.003447998324718737</v>
+        <v>0.001177359417338952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H11">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I11">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J11">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.288089</v>
       </c>
       <c r="O11">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P11">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q11">
-        <v>0.7847512565316667</v>
+        <v>0.4015919226626667</v>
       </c>
       <c r="R11">
-        <v>7.062761308785</v>
+        <v>3.614327303964</v>
       </c>
       <c r="S11">
-        <v>0.0002507453628682493</v>
+        <v>0.0001777600043539346</v>
       </c>
       <c r="T11">
-        <v>0.0002507453628682493</v>
+        <v>0.0001777600043539346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H12">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I12">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J12">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N12">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O12">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P12">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q12">
-        <v>13.13397374894889</v>
+        <v>2.864710195149333</v>
       </c>
       <c r="R12">
-        <v>118.20576374054</v>
+        <v>25.782391756344</v>
       </c>
       <c r="S12">
-        <v>0.004196594763208712</v>
+        <v>0.001268030724786901</v>
       </c>
       <c r="T12">
-        <v>0.004196594763208712</v>
+        <v>0.001268030724786901</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H13">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I13">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J13">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N13">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O13">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P13">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q13">
-        <v>12.38178899362611</v>
+        <v>5.565937659784888</v>
       </c>
       <c r="R13">
-        <v>111.436100942635</v>
+        <v>50.093438938064</v>
       </c>
       <c r="S13">
-        <v>0.003956255116922634</v>
+        <v>0.002463697716022486</v>
       </c>
       <c r="T13">
-        <v>0.003956255116922634</v>
+        <v>0.002463697716022486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H14">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I14">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J14">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N14">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O14">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P14">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q14">
-        <v>776.9332994868493</v>
+        <v>454.9072318207154</v>
       </c>
       <c r="R14">
-        <v>6992.399695381644</v>
+        <v>4094.165086386438</v>
       </c>
       <c r="S14">
-        <v>0.2482473528812948</v>
+        <v>0.2013594072633079</v>
       </c>
       <c r="T14">
-        <v>0.2482473528812948</v>
+        <v>0.2013594072633079</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H15">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I15">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J15">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.288089</v>
       </c>
       <c r="O15">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P15">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q15">
-        <v>56.50014987178034</v>
+        <v>68.68277462107102</v>
       </c>
       <c r="R15">
-        <v>508.5013488460231</v>
+        <v>618.1449715896391</v>
       </c>
       <c r="S15">
-        <v>0.01805304606242239</v>
+        <v>0.03040163316715257</v>
       </c>
       <c r="T15">
-        <v>0.01805304606242239</v>
+        <v>0.03040163316715256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H16">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I16">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J16">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N16">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O16">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P16">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q16">
-        <v>945.6136311362458</v>
+        <v>489.9407422927661</v>
       </c>
       <c r="R16">
-        <v>8510.522680226213</v>
+        <v>4409.466680634894</v>
       </c>
       <c r="S16">
-        <v>0.3021444452607294</v>
+        <v>0.2168665841326904</v>
       </c>
       <c r="T16">
-        <v>0.3021444452607293</v>
+        <v>0.2168665841326903</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H17">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I17">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J17">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N17">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O17">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P17">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q17">
-        <v>891.4581888183391</v>
+        <v>951.9216405232628</v>
       </c>
       <c r="R17">
-        <v>8023.123699365053</v>
+        <v>8567.294764709364</v>
       </c>
       <c r="S17">
-        <v>0.2848405850600976</v>
+        <v>0.4213570677469965</v>
       </c>
       <c r="T17">
-        <v>0.2848405850600976</v>
+        <v>0.4213570677469964</v>
       </c>
     </row>
   </sheetData>
